--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nittedal.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nittedal.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8488.775</v>
+        <v>8110.2595</v>
       </c>
       <c r="C2">
-        <v>6173.995</v>
+        <v>6055.098</v>
       </c>
       <c r="D2">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="E2">
-        <v>13837.31385</v>
+        <v>13831.980150000001</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="G2">
-        <v>0.012365545587782576</v>
+        <v>0.27292381690654427</v>
       </c>
       <c r="H2">
-        <v>6173.995</v>
+        <v>6055.098</v>
       </c>
       <c r="I2">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J2">
-        <v>2539907</v>
+        <v>2524206</v>
       </c>
       <c r="K2">
         <v>47</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8233.7385</v>
+        <v>8041.7855</v>
       </c>
       <c r="C3">
-        <v>6181.041</v>
+        <v>6192.165</v>
       </c>
       <c r="D3">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E3">
-        <v>13732.474500000004</v>
+        <v>13768.9342</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>107.5</v>
       </c>
       <c r="G3">
-        <v>0.012365545587782576</v>
+        <v>0.27292381690654427</v>
       </c>
       <c r="H3">
-        <v>6181.041</v>
+        <v>6192.165</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J3">
-        <v>2524247</v>
+        <v>2523985</v>
       </c>
       <c r="K3">
         <v>47</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8006.590499999999</v>
+        <v>8014.826500000001</v>
       </c>
       <c r="C4">
-        <v>6161.32</v>
+        <v>6162.313</v>
       </c>
       <c r="D4">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="E4">
-        <v>13795.214100000001</v>
+        <v>13773.685700000002</v>
       </c>
       <c r="F4">
-        <v>119</v>
+        <v>119.5</v>
       </c>
       <c r="G4">
         <v>0.012365545587782576</v>
       </c>
       <c r="H4">
-        <v>6161.32</v>
+        <v>6162.313</v>
       </c>
       <c r="I4">
         <v>59</v>
       </c>
       <c r="J4">
-        <v>2524822</v>
+        <v>2524325</v>
       </c>
       <c r="K4">
         <v>47</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>8233.7385</v>
+        <v>8041.7855</v>
       </c>
       <c r="C5">
-        <v>6173.995</v>
+        <v>6162.313</v>
       </c>
       <c r="D5">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="E5">
-        <v>13795.214100000001</v>
+        <v>13773.685700000002</v>
       </c>
       <c r="F5">
-        <v>119</v>
+        <v>119.5</v>
       </c>
       <c r="G5">
-        <v>0.012365545587782576</v>
+        <v>0.27292381690654427</v>
       </c>
       <c r="H5">
-        <v>6173.995</v>
+        <v>6162.313</v>
       </c>
       <c r="I5">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J5">
-        <v>2524822</v>
+        <v>2524206</v>
       </c>
       <c r="K5">
         <v>47</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>18196</v>
+        <v>18199</v>
       </c>
       <c r="F2">
         <v>78962</v>
       </c>
       <c r="G2">
-        <v>0.005291633347999999</v>
+        <v>0.005292505786999999</v>
       </c>
       <c r="H2">
-        <v>0.0069705491544</v>
+        <v>0.006971698398600001</v>
       </c>
     </row>
     <row r="3">
@@ -712,16 +712,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E5">
-        <v>485059</v>
+        <v>485057</v>
       </c>
       <c r="F5">
         <v>1398529</v>
       </c>
       <c r="G5">
-        <v>0.14106146296699998</v>
+        <v>0.14106088134099998</v>
       </c>
       <c r="H5">
-        <v>0.18581708080259998</v>
+        <v>0.1858163146398</v>
       </c>
     </row>
     <row r="6">
@@ -790,16 +790,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E8">
-        <v>28414</v>
+        <v>28413</v>
       </c>
       <c r="F8">
         <v>87507</v>
       </c>
       <c r="G8">
-        <v>0.008263160581999999</v>
+        <v>0.008262869768999998</v>
       </c>
       <c r="H8">
-        <v>0.010884874899600001</v>
+        <v>0.0108844918182</v>
       </c>
     </row>
     <row r="9">
@@ -839,16 +839,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E10">
-        <v>25481</v>
+        <v>10383</v>
       </c>
       <c r="F10">
         <v>25102</v>
       </c>
       <c r="G10">
-        <v>0.007410206052999999</v>
+        <v>0.0030195113789999997</v>
       </c>
       <c r="H10">
-        <v>0.0097612971534</v>
+        <v>0.0039775341762</v>
       </c>
     </row>
     <row r="11">
@@ -891,16 +891,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E12">
-        <v>8727</v>
+        <v>8704</v>
       </c>
       <c r="F12">
         <v>8537</v>
       </c>
       <c r="G12">
-        <v>0.0025379250509999997</v>
+        <v>0.002531236352</v>
       </c>
       <c r="H12">
-        <v>0.0033431513778</v>
+        <v>0.0033343405056</v>
       </c>
     </row>
     <row r="13">
@@ -917,16 +917,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E13">
-        <v>10540</v>
+        <v>10565</v>
       </c>
       <c r="F13">
         <v>10372</v>
       </c>
       <c r="G13">
-        <v>0.0030651690199999995</v>
+        <v>0.0030724393449999996</v>
       </c>
       <c r="H13">
-        <v>0.0040376779560000004</v>
+        <v>0.004047254991000001</v>
       </c>
     </row>
     <row r="14">
@@ -1021,16 +1021,16 @@
         <v>text/css</v>
       </c>
       <c r="E17">
-        <v>40803</v>
+        <v>40804</v>
       </c>
       <c r="F17">
         <v>79651</v>
       </c>
       <c r="G17">
-        <v>0.011866042838999998</v>
+        <v>0.011866333651999999</v>
       </c>
       <c r="H17">
-        <v>0.015630870364200005</v>
+        <v>0.015631253445600003</v>
       </c>
     </row>
     <row r="18">
@@ -1047,16 +1047,16 @@
         <v>text/html</v>
       </c>
       <c r="E18">
-        <v>38771</v>
+        <v>38763</v>
       </c>
       <c r="F18">
         <v>123370</v>
       </c>
       <c r="G18">
-        <v>0.011275110823</v>
+        <v>0.011272784319</v>
       </c>
       <c r="H18">
-        <v>0.014852448959400001</v>
+        <v>0.0148493843082</v>
       </c>
     </row>
     <row r="19">
@@ -1099,16 +1099,16 @@
         <v>application/json</v>
       </c>
       <c r="E20">
-        <v>18731</v>
+        <v>18676</v>
       </c>
       <c r="F20">
-        <v>271217</v>
+        <v>268187</v>
       </c>
       <c r="G20">
-        <v>0.005447218302999999</v>
+        <v>0.005431223587999999</v>
       </c>
       <c r="H20">
-        <v>0.007175497703400001</v>
+        <v>0.0071544282263999994</v>
       </c>
     </row>
     <row r="21">
@@ -1142,25 +1142,25 @@
         <v>1</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
+        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
       </c>
       <c r="C22" t="str">
         <v>Image</v>
       </c>
       <c r="D22" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E22">
-        <v>590</v>
+        <v>9022</v>
       </c>
       <c r="F22">
-        <v>450</v>
+        <v>8853</v>
       </c>
       <c r="G22">
-        <v>0.00017157967</v>
+        <v>0.0026237148859999996</v>
       </c>
       <c r="H22">
-        <v>0.00022601802599999998</v>
+        <v>0.0034561603908</v>
       </c>
     </row>
     <row r="23">
@@ -1168,25 +1168,25 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
       </c>
       <c r="D23" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E23">
-        <v>2641</v>
+        <v>588</v>
       </c>
       <c r="F23">
-        <v>2505</v>
+        <v>450</v>
       </c>
       <c r="G23">
-        <v>0.000768037133</v>
+        <v>0.00017099804399999996</v>
       </c>
       <c r="H23">
-        <v>0.0010117179774000004</v>
+        <v>0.0002252518632</v>
       </c>
     </row>
     <row r="24">
@@ -1194,25 +1194,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
       </c>
       <c r="C24" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D24" t="str">
-        <v>application/x-font-ttf</v>
+        <v>image/png</v>
       </c>
       <c r="E24">
-        <v>12996</v>
+        <v>2641</v>
       </c>
       <c r="F24">
-        <v>12996</v>
+        <v>2505</v>
       </c>
       <c r="G24">
-        <v>0.0037794057479999996</v>
+        <v>0.000768037133</v>
       </c>
       <c r="H24">
-        <v>0.0049785258744000005</v>
+        <v>0.0010117179774000004</v>
       </c>
     </row>
     <row r="25">
@@ -1220,25 +1220,25 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
+        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
       </c>
       <c r="C25" t="str">
         <v>Font</v>
       </c>
       <c r="D25" t="str">
-        <v>application/font-woff</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E25">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="F25">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="G25">
-        <v>0.007478547107999999</v>
+        <v>0.0037794057479999996</v>
       </c>
       <c r="H25">
-        <v>0.009851321282399999</v>
+        <v>0.0049785258744000005</v>
       </c>
     </row>
     <row r="26">
@@ -1246,25 +1246,25 @@
         <v>1</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
+        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
       </c>
       <c r="C26" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D26" t="str">
-        <v>image/png</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E26">
-        <v>9020</v>
+        <v>25716</v>
       </c>
       <c r="F26">
-        <v>8853</v>
+        <v>25716</v>
       </c>
       <c r="G26">
-        <v>0.0026231332599999995</v>
+        <v>0.007478547107999999</v>
       </c>
       <c r="H26">
-        <v>0.0034553942279999996</v>
+        <v>0.009851321282399999</v>
       </c>
     </row>
     <row r="27">
@@ -1307,16 +1307,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E28">
-        <v>27379</v>
+        <v>27417</v>
       </c>
       <c r="F28">
         <v>26913</v>
       </c>
       <c r="G28">
-        <v>0.007962169126999999</v>
+        <v>0.007973220021</v>
       </c>
       <c r="H28">
-        <v>0.0104883856506</v>
+        <v>0.010502942743799999</v>
       </c>
     </row>
     <row r="29">
@@ -1333,16 +1333,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>157119</v>
+        <v>157156</v>
       </c>
       <c r="F29">
         <v>156467</v>
       </c>
       <c r="G29">
-        <v>0.045692247746999995</v>
+        <v>0.04570300782799999</v>
       </c>
       <c r="H29">
-        <v>0.0601893664866</v>
+        <v>0.0602035404984</v>
       </c>
     </row>
     <row r="30">
@@ -1359,16 +1359,16 @@
         <v>image/png</v>
       </c>
       <c r="E30">
-        <v>257444</v>
+        <v>257482</v>
       </c>
       <c r="F30">
         <v>256738</v>
       </c>
       <c r="G30">
-        <v>0.07486806197199998</v>
+        <v>0.07487911286599999</v>
       </c>
       <c r="H30">
-        <v>0.0986220079416</v>
+        <v>0.0986365650348</v>
       </c>
     </row>
     <row r="31">
@@ -1385,16 +1385,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E31">
-        <v>125709</v>
+        <v>125748</v>
       </c>
       <c r="F31">
         <v>125073</v>
       </c>
       <c r="G31">
-        <v>0.03655781141699999</v>
+        <v>0.036569153124</v>
       </c>
       <c r="H31">
-        <v>0.0481567797126</v>
+        <v>0.0481717198872</v>
       </c>
     </row>
     <row r="32">
@@ -1411,16 +1411,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E32">
-        <v>122510</v>
+        <v>122557</v>
       </c>
       <c r="F32">
         <v>121876</v>
       </c>
       <c r="G32">
-        <v>0.035627500629999996</v>
+        <v>0.03564116884099999</v>
       </c>
       <c r="H32">
-        <v>0.046931302314</v>
+        <v>0.0469493071398</v>
       </c>
     </row>
     <row r="33">
@@ -1437,16 +1437,16 @@
         <v>text/css</v>
       </c>
       <c r="E33">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F33">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G33">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H33">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="34">
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=1306757130&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1134994102&amp;gjid=838632319&amp;cid=500837153.1762814255&amp;tid=UA-57721246-1&amp;_gid=1438200264.1762814255&amp;_r=1&amp;_slc=1&amp;z=133154590</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=1995968185&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1775774193&amp;gjid=2055594698&amp;cid=1129149040.1763140955&amp;tid=UA-57721246-1&amp;_gid=1767019192.1763140955&amp;_r=1&amp;_slc=1&amp;z=617103531</v>
       </c>
       <c r="C35" t="str">
         <v>XHR</v>
@@ -1515,16 +1515,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E36">
-        <v>137417</v>
+        <v>137279</v>
       </c>
       <c r="F36">
-        <v>387898</v>
+        <v>387390</v>
       </c>
       <c r="G36">
-        <v>0.039962650020999996</v>
+        <v>0.039922517826999994</v>
       </c>
       <c r="H36">
-        <v>0.0526418967438</v>
+        <v>0.0525890315106</v>
       </c>
     </row>
     <row r="37">
@@ -1541,16 +1541,16 @@
         <v>text/css</v>
       </c>
       <c r="E37">
-        <v>10450</v>
+        <v>10428</v>
       </c>
       <c r="F37">
         <v>53715</v>
       </c>
       <c r="G37">
-        <v>0.0030389958499999997</v>
+        <v>0.0030325979639999993</v>
       </c>
       <c r="H37">
-        <v>0.00400320063</v>
+        <v>0.003994772839200001</v>
       </c>
     </row>
     <row r="38">
@@ -1567,16 +1567,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E38">
-        <v>147070</v>
+        <v>146857</v>
       </c>
       <c r="F38">
-        <v>432918</v>
+        <v>432403</v>
       </c>
       <c r="G38">
-        <v>0.042769867909999995</v>
+        <v>0.04270792474099999</v>
       </c>
       <c r="H38">
-        <v>0.05633978149800001</v>
+        <v>0.056258185159799995</v>
       </c>
     </row>
     <row r="39">
@@ -1593,16 +1593,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E39">
-        <v>29683</v>
+        <v>29396</v>
       </c>
       <c r="F39">
         <v>87794</v>
       </c>
       <c r="G39">
-        <v>0.008632202278999999</v>
+        <v>0.008548738947999998</v>
       </c>
       <c r="H39">
-        <v>0.0113710051962</v>
+        <v>0.0112610608344</v>
       </c>
     </row>
     <row r="40">
@@ -1619,16 +1619,16 @@
         <v>image/webp</v>
       </c>
       <c r="E40">
-        <v>8301</v>
+        <v>8304</v>
       </c>
       <c r="F40">
         <v>8004</v>
       </c>
       <c r="G40">
-        <v>0.0024140387129999996</v>
+        <v>0.002414911152</v>
       </c>
       <c r="H40">
-        <v>0.0031799587014000002</v>
+        <v>0.003181107945600001</v>
       </c>
     </row>
     <row r="41">
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5b71v9110735214za200&amp;_p=1762814255035&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=500837153.1762814255&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527907~104528501~104684208~104684211~115583767~115938466~115938468~116217636~116217638~116424828&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1762814255&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1009</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763140954786&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=1129149040.1763140955&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~105322304~115583767~115616986~115938466~115938469~116194002~116217636~116217638~116474636&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140954&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1006</v>
       </c>
       <c r="C41" t="str">
         <v>Fetch</v>
@@ -1694,16 +1694,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E43">
-        <v>1408</v>
+        <v>1208</v>
       </c>
       <c r="F43">
         <v>3018</v>
       </c>
       <c r="G43">
-        <v>0.0004094647039999999</v>
+        <v>0.0003513021039999999</v>
       </c>
       <c r="H43">
-        <v>0.0005393786112</v>
+        <v>0.00046276233119999996</v>
       </c>
     </row>
     <row r="44">
@@ -1821,16 +1821,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="F48">
         <v>1597</v>
       </c>
       <c r="G48">
-        <v>0.000556034456</v>
+        <v>0.0005554528299999999</v>
       </c>
       <c r="H48">
-        <v>0.0007324516368000002</v>
+        <v>0.000731685474</v>
       </c>
     </row>
     <row r="49">
@@ -1847,16 +1847,16 @@
         <v>text/html</v>
       </c>
       <c r="E49">
-        <v>18198</v>
+        <v>18196</v>
       </c>
       <c r="F49">
         <v>78962</v>
       </c>
       <c r="G49">
-        <v>0.005292214973999999</v>
+        <v>0.005291633347999999</v>
       </c>
       <c r="H49">
-        <v>0.006971315317200001</v>
+        <v>0.0069705491544</v>
       </c>
     </row>
     <row r="50">
@@ -1899,16 +1899,16 @@
         <v>text/css</v>
       </c>
       <c r="E51">
-        <v>122154</v>
+        <v>122156</v>
       </c>
       <c r="F51">
         <v>327837</v>
       </c>
       <c r="G51">
-        <v>0.035523971201999995</v>
+        <v>0.03552455282799999</v>
       </c>
       <c r="H51">
-        <v>0.0467949253356</v>
+        <v>0.0467956914984</v>
       </c>
     </row>
     <row r="52">
@@ -1925,16 +1925,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E52">
-        <v>485059</v>
+        <v>485057</v>
       </c>
       <c r="F52">
         <v>1398529</v>
       </c>
       <c r="G52">
-        <v>0.14106146296699998</v>
+        <v>0.14106088134099998</v>
       </c>
       <c r="H52">
-        <v>0.18581708080259998</v>
+        <v>0.1858163146398</v>
       </c>
     </row>
     <row r="53">
@@ -2003,16 +2003,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E55">
-        <v>28415</v>
+        <v>28413</v>
       </c>
       <c r="F55">
         <v>87507</v>
       </c>
       <c r="G55">
-        <v>0.008263451395</v>
+        <v>0.008262869768999998</v>
       </c>
       <c r="H55">
-        <v>0.010885257981000002</v>
+        <v>0.0108844918182</v>
       </c>
     </row>
     <row r="56">
@@ -2104,16 +2104,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E59">
-        <v>8704</v>
+        <v>8729</v>
       </c>
       <c r="F59">
         <v>8537</v>
       </c>
       <c r="G59">
-        <v>0.002531236352</v>
+        <v>0.0025385066769999997</v>
       </c>
       <c r="H59">
-        <v>0.0033343405056</v>
+        <v>0.0033439175406000006</v>
       </c>
     </row>
     <row r="60">
@@ -2130,16 +2130,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E60">
-        <v>10588</v>
+        <v>10542</v>
       </c>
       <c r="F60">
         <v>10372</v>
       </c>
       <c r="G60">
-        <v>0.003079128044</v>
+        <v>0.0030657506459999995</v>
       </c>
       <c r="H60">
-        <v>0.0040560658632</v>
+        <v>0.0040384441188</v>
       </c>
     </row>
     <row r="61">
@@ -2199,25 +2199,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
       </c>
       <c r="C63" t="str">
-        <v>Script</v>
+        <v>Image</v>
       </c>
       <c r="D63" t="str">
-        <v>text/javascript</v>
+        <v>image/png</v>
       </c>
       <c r="E63">
-        <v>21344</v>
+        <v>9022</v>
       </c>
       <c r="F63">
-        <v>52310</v>
+        <v>8853</v>
       </c>
       <c r="G63">
-        <v>0.006207112672</v>
+        <v>0.0026237148859999996</v>
       </c>
       <c r="H63">
-        <v>0.008176489401600002</v>
+        <v>0.0034561603908</v>
       </c>
     </row>
     <row r="64">
@@ -2225,25 +2225,25 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://cdn1.readspeaker.com/script/5653/webReader/r/r2852/ReadSpeaker.Styles-Button.css?v=3.8.8.2852</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C64" t="str">
-        <v>Stylesheet</v>
+        <v>Script</v>
       </c>
       <c r="D64" t="str">
-        <v>text/css</v>
+        <v>text/javascript</v>
       </c>
       <c r="E64">
-        <v>40803</v>
+        <v>21344</v>
       </c>
       <c r="F64">
-        <v>79651</v>
+        <v>52310</v>
       </c>
       <c r="G64">
-        <v>0.011866042838999998</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H64">
-        <v>0.015630870364200005</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="65">
@@ -2251,25 +2251,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://share.transistor.fm/e/vi-er-nittedal-c5a88790-c667-457d-9237-b8f0a3cc50a3/playlist?color=444444&amp;background=FFFFFF</v>
+        <v>https://cdn1.readspeaker.com/script/5653/webReader/r/r2852/ReadSpeaker.Styles-Button.css?v=3.8.8.2852</v>
       </c>
       <c r="C65" t="str">
-        <v>Document</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D65" t="str">
-        <v>text/html</v>
+        <v>text/css</v>
       </c>
       <c r="E65">
-        <v>38762</v>
+        <v>40804</v>
       </c>
       <c r="F65">
-        <v>123370</v>
+        <v>79651</v>
       </c>
       <c r="G65">
-        <v>0.011272493505999999</v>
+        <v>0.011866333651999999</v>
       </c>
       <c r="H65">
-        <v>0.0148490012268</v>
+        <v>0.015631253445600003</v>
       </c>
     </row>
     <row r="66">
@@ -2277,25 +2277,25 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/04-common/font/budicon.woff?42886572</v>
+        <v>https://share.transistor.fm/e/vi-er-nittedal-c5a88790-c667-457d-9237-b8f0a3cc50a3/playlist?color=444444&amp;background=FFFFFF</v>
       </c>
       <c r="C66" t="str">
-        <v>Font</v>
+        <v>Document</v>
       </c>
       <c r="D66" t="str">
-        <v>application/font-woff</v>
+        <v>text/html</v>
       </c>
       <c r="E66">
-        <v>100267</v>
+        <v>38760</v>
       </c>
       <c r="F66">
-        <v>99880</v>
+        <v>123370</v>
       </c>
       <c r="G66">
-        <v>0.029158947070999995</v>
+        <v>0.011271911879999999</v>
       </c>
       <c r="H66">
-        <v>0.03841042273379999</v>
+        <v>0.014848235064000001</v>
       </c>
     </row>
     <row r="67">
@@ -2303,25 +2303,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=1921&amp;SearchText=&amp;DateFrom=01.11.2025&amp;DateTo=30.11.2025&amp;Municipalities=0&amp;Kunde=nittedalkommune&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=&amp;Distributor=</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/04-common/font/budicon.woff?42886572</v>
       </c>
       <c r="C67" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D67" t="str">
-        <v>application/json</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E67">
-        <v>18731</v>
+        <v>100267</v>
       </c>
       <c r="F67">
-        <v>271217</v>
+        <v>99880</v>
       </c>
       <c r="G67">
-        <v>0.005447218302999999</v>
+        <v>0.029158947070999995</v>
       </c>
       <c r="H67">
-        <v>0.007175497703400001</v>
+        <v>0.03841042273379999</v>
       </c>
     </row>
     <row r="68">
@@ -2329,25 +2329,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://fonts.gstatic.com/s/opensans/v44/memvYaGs126MiZpBA-UvWbX2vVnXBbObj2OVTUGmu0SC55K5gw.woff2</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=1921&amp;SearchText=&amp;DateFrom=01.11.2025&amp;DateTo=30.11.2025&amp;Municipalities=0&amp;Kunde=nittedalkommune&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=&amp;Distributor=</v>
       </c>
       <c r="C68" t="str">
-        <v>Font</v>
+        <v>XHR</v>
       </c>
       <c r="D68" t="str">
-        <v>font/woff2</v>
+        <v>application/json</v>
       </c>
       <c r="E68">
-        <v>22709</v>
+        <v>18676</v>
       </c>
       <c r="F68">
-        <v>22680</v>
+        <v>268187</v>
       </c>
       <c r="G68">
-        <v>0.006604072416999999</v>
+        <v>0.005431223587999999</v>
       </c>
       <c r="H68">
-        <v>0.0086993955126</v>
+        <v>0.0071544282263999994</v>
       </c>
     </row>
     <row r="69">
@@ -2355,25 +2355,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
+        <v>https://fonts.gstatic.com/s/opensans/v44/memvYaGs126MiZpBA-UvWbX2vVnXBbObj2OVTUGmu0SC55K5gw.woff2</v>
       </c>
       <c r="C69" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D69" t="str">
-        <v>image/svg+xml</v>
+        <v>font/woff2</v>
       </c>
       <c r="E69">
-        <v>590</v>
+        <v>22709</v>
       </c>
       <c r="F69">
-        <v>450</v>
+        <v>22680</v>
       </c>
       <c r="G69">
-        <v>0.00017157967</v>
+        <v>0.006604072416999999</v>
       </c>
       <c r="H69">
-        <v>0.00022601802599999998</v>
+        <v>0.0086993955126</v>
       </c>
     </row>
     <row r="70">
@@ -2381,25 +2381,25 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
       </c>
       <c r="D70" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E70">
-        <v>2639</v>
+        <v>590</v>
       </c>
       <c r="F70">
-        <v>2505</v>
+        <v>450</v>
       </c>
       <c r="G70">
-        <v>0.0007674555069999999</v>
+        <v>0.00017157967</v>
       </c>
       <c r="H70">
-        <v>0.0010109518146000003</v>
+        <v>0.00022601802599999998</v>
       </c>
     </row>
     <row r="71">
@@ -2407,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
       </c>
       <c r="C71" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D71" t="str">
-        <v>application/x-font-ttf</v>
+        <v>image/png</v>
       </c>
       <c r="E71">
-        <v>12996</v>
+        <v>2639</v>
       </c>
       <c r="F71">
-        <v>12996</v>
+        <v>2505</v>
       </c>
       <c r="G71">
-        <v>0.0037794057479999996</v>
+        <v>0.0007674555069999999</v>
       </c>
       <c r="H71">
-        <v>0.0049785258744000005</v>
+        <v>0.0010109518146000003</v>
       </c>
     </row>
     <row r="72">
@@ -2433,25 +2433,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
+        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
       </c>
       <c r="C72" t="str">
         <v>Font</v>
       </c>
       <c r="D72" t="str">
-        <v>application/font-woff</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E72">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="F72">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="G72">
-        <v>0.007478547107999999</v>
+        <v>0.0037794057479999996</v>
       </c>
       <c r="H72">
-        <v>0.009851321282399999</v>
+        <v>0.0049785258744000005</v>
       </c>
     </row>
     <row r="73">
@@ -2459,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
+        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
       </c>
       <c r="C73" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D73" t="str">
-        <v>image/png</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E73">
-        <v>9022</v>
+        <v>25716</v>
       </c>
       <c r="F73">
-        <v>8853</v>
+        <v>25716</v>
       </c>
       <c r="G73">
-        <v>0.0026237148859999996</v>
+        <v>0.007478547107999999</v>
       </c>
       <c r="H73">
-        <v>0.0034561603908</v>
+        <v>0.009851321282399999</v>
       </c>
     </row>
     <row r="74">
@@ -2546,16 +2546,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E76">
-        <v>156963</v>
+        <v>157195</v>
       </c>
       <c r="F76">
         <v>156467</v>
       </c>
       <c r="G76">
-        <v>0.04564688091899999</v>
+        <v>0.04571434953499999</v>
       </c>
       <c r="H76">
-        <v>0.06012960578820002</v>
+        <v>0.06021848067300001</v>
       </c>
     </row>
     <row r="77">
@@ -2572,16 +2572,16 @@
         <v>image/png</v>
       </c>
       <c r="E77">
-        <v>257575</v>
+        <v>257361</v>
       </c>
       <c r="F77">
         <v>256738</v>
       </c>
       <c r="G77">
-        <v>0.07490615847499998</v>
+        <v>0.074843924493</v>
       </c>
       <c r="H77">
-        <v>0.09867219160500001</v>
+        <v>0.09859021218540001</v>
       </c>
     </row>
     <row r="78">
@@ -2598,16 +2598,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>125545</v>
+        <v>125536</v>
       </c>
       <c r="F78">
         <v>125073</v>
       </c>
       <c r="G78">
-        <v>0.036510118085</v>
+        <v>0.036507500767999995</v>
       </c>
       <c r="H78">
-        <v>0.048093954363</v>
+        <v>0.04809050663040001</v>
       </c>
     </row>
     <row r="79">
@@ -2624,16 +2624,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>122346</v>
+        <v>122328</v>
       </c>
       <c r="F79">
         <v>121876</v>
       </c>
       <c r="G79">
-        <v>0.035579807298</v>
+        <v>0.035574572664</v>
       </c>
       <c r="H79">
-        <v>0.046868476964400003</v>
+        <v>0.0468615814992</v>
       </c>
     </row>
     <row r="80">
@@ -2650,16 +2650,16 @@
         <v>text/css</v>
       </c>
       <c r="E80">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F80">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G80">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H80">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="81">
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=1008969097&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=52519539&amp;gjid=990567944&amp;cid=1891159454.1762814268&amp;tid=UA-57721246-1&amp;_gid=135858463.1762814268&amp;_r=1&amp;_slc=1&amp;z=1534740960</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=819039624&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=836338402&amp;gjid=1891891427&amp;cid=216167352.1763140968&amp;tid=UA-57721246-1&amp;_gid=2021050495.1763140968&amp;_r=1&amp;_slc=1&amp;z=2069515802</v>
       </c>
       <c r="C82" t="str">
         <v>XHR</v>
@@ -2754,16 +2754,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E84">
-        <v>147068</v>
+        <v>146861</v>
       </c>
       <c r="F84">
-        <v>432918</v>
+        <v>432393</v>
       </c>
       <c r="G84">
-        <v>0.042769286283999994</v>
+        <v>0.042709087992999994</v>
       </c>
       <c r="H84">
-        <v>0.05633901533520001</v>
+        <v>0.056259717485400006</v>
       </c>
     </row>
     <row r="85">
@@ -2780,16 +2780,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E85">
-        <v>29686</v>
+        <v>29696</v>
       </c>
       <c r="F85">
         <v>87794</v>
       </c>
       <c r="G85">
-        <v>0.008633074717999999</v>
+        <v>0.008635982847999999</v>
       </c>
       <c r="H85">
-        <v>0.011372154440400002</v>
+        <v>0.011375985254400003</v>
       </c>
     </row>
     <row r="86">
@@ -2806,16 +2806,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E86">
-        <v>137421</v>
+        <v>137505</v>
       </c>
       <c r="F86">
-        <v>387908</v>
+        <v>388305</v>
       </c>
       <c r="G86">
-        <v>0.03996381327299999</v>
+        <v>0.039988241565</v>
       </c>
       <c r="H86">
-        <v>0.052643429069400005</v>
+        <v>0.052675607907</v>
       </c>
     </row>
     <row r="87">
@@ -2832,16 +2832,16 @@
         <v>image/webp</v>
       </c>
       <c r="E87">
-        <v>8304</v>
+        <v>8305</v>
       </c>
       <c r="F87">
         <v>8004</v>
       </c>
       <c r="G87">
-        <v>0.002414911152</v>
+        <v>0.0024152019649999997</v>
       </c>
       <c r="H87">
-        <v>0.003181107945600001</v>
+        <v>0.003181491027</v>
       </c>
     </row>
     <row r="88">
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5b71v9110735214za200&amp;_p=1762814268119&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=1891159454.1762814268&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528500~104684208~104684211~105322302~105391253~115583767~115938466~115938468~116194001~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1762814268&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=968</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bd0h2v9110735214za200&amp;_p=1763140967981&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=216167352.1763140968&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140968&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1007</v>
       </c>
       <c r="C88" t="str">
         <v>Fetch</v>
@@ -2907,16 +2907,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E90">
-        <v>1408</v>
+        <v>1208</v>
       </c>
       <c r="F90">
         <v>3018</v>
       </c>
       <c r="G90">
-        <v>0.0004094647039999999</v>
+        <v>0.0003513021039999999</v>
       </c>
       <c r="H90">
-        <v>0.0005393786112</v>
+        <v>0.00046276233119999996</v>
       </c>
     </row>
     <row r="91">
@@ -3034,16 +3034,16 @@
         <v>text/html</v>
       </c>
       <c r="E95">
-        <v>1889</v>
+        <v>1912</v>
       </c>
       <c r="F95">
         <v>1597</v>
       </c>
       <c r="G95">
-        <v>0.0005493457569999999</v>
+        <v>0.000556034456</v>
       </c>
       <c r="H95">
-        <v>0.0007236407646000001</v>
+        <v>0.0007324516368000002</v>
       </c>
     </row>
     <row r="96">
@@ -3138,16 +3138,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E99">
-        <v>485059</v>
+        <v>485057</v>
       </c>
       <c r="F99">
         <v>1398529</v>
       </c>
       <c r="G99">
-        <v>0.14106146296699998</v>
+        <v>0.14106088134099998</v>
       </c>
       <c r="H99">
-        <v>0.18581708080259998</v>
+        <v>0.1858163146398</v>
       </c>
     </row>
     <row r="100">
@@ -3317,16 +3317,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E106">
-        <v>8706</v>
+        <v>8729</v>
       </c>
       <c r="F106">
         <v>8537</v>
       </c>
       <c r="G106">
-        <v>0.002531817978</v>
+        <v>0.0025385066769999997</v>
       </c>
       <c r="H106">
-        <v>0.0033351066684</v>
+        <v>0.0033439175406000006</v>
       </c>
     </row>
     <row r="107">
@@ -3343,16 +3343,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E107">
-        <v>10586</v>
+        <v>10542</v>
       </c>
       <c r="F107">
         <v>10372</v>
       </c>
       <c r="G107">
-        <v>0.0030785464179999998</v>
+        <v>0.0030657506459999995</v>
       </c>
       <c r="H107">
-        <v>0.0040552997004</v>
+        <v>0.0040384441188</v>
       </c>
     </row>
     <row r="108">
@@ -3473,16 +3473,16 @@
         <v>text/html</v>
       </c>
       <c r="E112">
-        <v>38771</v>
+        <v>38763</v>
       </c>
       <c r="F112">
         <v>123370</v>
       </c>
       <c r="G112">
-        <v>0.011275110823</v>
+        <v>0.011272784319</v>
       </c>
       <c r="H112">
-        <v>0.014852448959400001</v>
+        <v>0.0148493843082</v>
       </c>
     </row>
     <row r="113">
@@ -3525,16 +3525,16 @@
         <v>application/json</v>
       </c>
       <c r="E114">
-        <v>18731</v>
+        <v>18676</v>
       </c>
       <c r="F114">
-        <v>271217</v>
+        <v>268187</v>
       </c>
       <c r="G114">
-        <v>0.005447218302999999</v>
+        <v>0.005431223587999999</v>
       </c>
       <c r="H114">
-        <v>0.007175497703400001</v>
+        <v>0.0071544282263999994</v>
       </c>
     </row>
     <row r="115">
@@ -3568,25 +3568,25 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
+        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
       </c>
       <c r="D116" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E116">
-        <v>588</v>
+        <v>9022</v>
       </c>
       <c r="F116">
-        <v>450</v>
+        <v>8853</v>
       </c>
       <c r="G116">
-        <v>0.00017099804399999996</v>
+        <v>0.0026237148859999996</v>
       </c>
       <c r="H116">
-        <v>0.0002252518632</v>
+        <v>0.0034561603908</v>
       </c>
     </row>
     <row r="117">
@@ -3594,25 +3594,25 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
       </c>
       <c r="D117" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E117">
-        <v>2641</v>
+        <v>588</v>
       </c>
       <c r="F117">
-        <v>2505</v>
+        <v>450</v>
       </c>
       <c r="G117">
-        <v>0.000768037133</v>
+        <v>0.00017099804399999996</v>
       </c>
       <c r="H117">
-        <v>0.0010117179774000004</v>
+        <v>0.0002252518632</v>
       </c>
     </row>
     <row r="118">
@@ -3620,25 +3620,25 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
       </c>
       <c r="C118" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D118" t="str">
-        <v>application/x-font-ttf</v>
+        <v>image/png</v>
       </c>
       <c r="E118">
-        <v>12996</v>
+        <v>2641</v>
       </c>
       <c r="F118">
-        <v>12996</v>
+        <v>2505</v>
       </c>
       <c r="G118">
-        <v>0.0037794057479999996</v>
+        <v>0.000768037133</v>
       </c>
       <c r="H118">
-        <v>0.0049785258744000005</v>
+        <v>0.0010117179774000004</v>
       </c>
     </row>
     <row r="119">
@@ -3646,25 +3646,25 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
+        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
       </c>
       <c r="C119" t="str">
         <v>Font</v>
       </c>
       <c r="D119" t="str">
-        <v>application/font-woff</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E119">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="F119">
-        <v>25716</v>
+        <v>12996</v>
       </c>
       <c r="G119">
-        <v>0.007478547107999999</v>
+        <v>0.0037794057479999996</v>
       </c>
       <c r="H119">
-        <v>0.009851321282399999</v>
+        <v>0.0049785258744000005</v>
       </c>
     </row>
     <row r="120">
@@ -3672,25 +3672,25 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
+        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
       </c>
       <c r="C120" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D120" t="str">
-        <v>image/png</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E120">
-        <v>9022</v>
+        <v>25716</v>
       </c>
       <c r="F120">
-        <v>8853</v>
+        <v>25716</v>
       </c>
       <c r="G120">
-        <v>0.0026237148859999996</v>
+        <v>0.007478547107999999</v>
       </c>
       <c r="H120">
-        <v>0.0034561603908</v>
+        <v>0.009851321282399999</v>
       </c>
     </row>
     <row r="121">
@@ -3863,16 +3863,16 @@
         <v>text/css</v>
       </c>
       <c r="E127">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F127">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G127">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H127">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="128">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=1395482501&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1330050826&amp;gjid=705900909&amp;cid=172264341.1762814281&amp;tid=UA-57721246-1&amp;_gid=463690482.1762814281&amp;_r=1&amp;_slc=1&amp;z=1837117808</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=828336498&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=127340212&amp;gjid=1281385461&amp;cid=1827825342.1763140981&amp;tid=UA-57721246-1&amp;_gid=1687524289.1763140981&amp;_r=1&amp;_slc=1&amp;z=1675105889</v>
       </c>
       <c r="C129" t="str">
         <v>XHR</v>
@@ -3967,16 +3967,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E131">
-        <v>147070</v>
+        <v>146861</v>
       </c>
       <c r="F131">
-        <v>432918</v>
+        <v>432393</v>
       </c>
       <c r="G131">
-        <v>0.042769867909999995</v>
+        <v>0.042709087992999994</v>
       </c>
       <c r="H131">
-        <v>0.05633978149800001</v>
+        <v>0.056259717485400006</v>
       </c>
     </row>
     <row r="132">
@@ -3993,16 +3993,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E132">
-        <v>29692</v>
+        <v>29690</v>
       </c>
       <c r="F132">
         <v>87794</v>
       </c>
       <c r="G132">
-        <v>0.008634819595999998</v>
+        <v>0.008634237969999998</v>
       </c>
       <c r="H132">
-        <v>0.0113744529288</v>
+        <v>0.011373686766</v>
       </c>
     </row>
     <row r="133">
@@ -4019,16 +4019,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E133">
-        <v>137416</v>
+        <v>137275</v>
       </c>
       <c r="F133">
-        <v>387898</v>
+        <v>387373</v>
       </c>
       <c r="G133">
-        <v>0.039962359207999995</v>
+        <v>0.039921354575</v>
       </c>
       <c r="H133">
-        <v>0.0526415136624</v>
+        <v>0.052587499185000004</v>
       </c>
     </row>
     <row r="134">
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5b71h1v9110735214za200&amp;_p=1762814281339&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=172264341.1762814281&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.135%7CGoogle%2520Chrome%3B142.0.7444.135%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=101509157~103116026~103200004~103233427~104527906~104528501~104684208~104684211~105322304~115583767~115938466~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1762814281&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1058</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763140981057&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=1827825342.1763140981&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140981&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=988</v>
       </c>
       <c r="C135" t="str">
         <v>Fetch</v>
@@ -4120,16 +4120,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E137">
-        <v>1408</v>
+        <v>1208</v>
       </c>
       <c r="F137">
         <v>3018</v>
       </c>
       <c r="G137">
-        <v>0.0004094647039999999</v>
+        <v>0.0003513021039999999</v>
       </c>
       <c r="H137">
-        <v>0.0005393786112</v>
+        <v>0.00046276233119999996</v>
       </c>
     </row>
     <row r="138">
@@ -4195,16 +4195,16 @@
         <v>text/json</v>
       </c>
       <c r="E140">
-        <v>7414</v>
+        <v>7415</v>
       </c>
       <c r="F140">
         <v>28951</v>
       </c>
       <c r="G140">
-        <v>0.0021560875819999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H140">
-        <v>0.0028401654996000002</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="141">
@@ -4247,16 +4247,16 @@
         <v>text/html</v>
       </c>
       <c r="E142">
-        <v>1887</v>
+        <v>1910</v>
       </c>
       <c r="F142">
         <v>1597</v>
       </c>
       <c r="G142">
-        <v>0.000548764131</v>
+        <v>0.0005554528299999999</v>
       </c>
       <c r="H142">
-        <v>0.0007228746018000001</v>
+        <v>0.000731685474</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>170896</v>
+        <v>170879</v>
       </c>
       <c r="D2">
         <v>606996</v>
@@ -4309,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>526901</v>
+        <v>526883</v>
       </c>
       <c r="D3">
         <v>1436286</v>
@@ -4323,10 +4323,10 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>3711757</v>
+        <v>3710045</v>
       </c>
       <c r="D4">
-        <v>11671666</v>
+        <v>11669465</v>
       </c>
     </row>
     <row r="5">
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>2270737</v>
+        <v>2255793</v>
       </c>
       <c r="D6">
         <v>2330766</v>
@@ -4379,10 +4379,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>79846</v>
+        <v>79682</v>
       </c>
       <c r="D8">
-        <v>900549</v>
+        <v>891459</v>
       </c>
     </row>
     <row r="9">
@@ -4393,10 +4393,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>67833</v>
+        <v>68184</v>
       </c>
       <c r="D9">
-        <v>767817</v>
+        <v>771600</v>
       </c>
     </row>
     <row r="10">
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5688</v>
+        <v>5732</v>
       </c>
       <c r="D11">
         <v>4791</v>
@@ -4460,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2539907</v>
+        <v>2524206</v>
       </c>
       <c r="C2">
-        <v>0.738637974391</v>
+        <v>0.7340719194779999</v>
       </c>
       <c r="D2">
-        <v>0.9729911294298</v>
+        <v>0.9669763683684003</v>
       </c>
     </row>
     <row r="3">
@@ -4474,13 +4474,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2524247</v>
+        <v>2523985</v>
       </c>
       <c r="C3">
-        <v>0.7340838428109999</v>
+        <v>0.734007649805</v>
       </c>
       <c r="D3">
-        <v>0.9669920747058</v>
+        <v>0.9668917073790001</v>
       </c>
     </row>
     <row r="4">
@@ -4488,13 +4488,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2524822</v>
+        <v>2524325</v>
       </c>
       <c r="C4">
-        <v>0.7342510602859998</v>
+        <v>0.734106526225</v>
       </c>
       <c r="D4">
-        <v>0.9672123465108</v>
+        <v>0.967021955055</v>
       </c>
     </row>
     <row r="5">
@@ -4502,13 +4502,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>2524822</v>
+        <v>2524206</v>
       </c>
       <c r="C5">
-        <v>0.7342510602859998</v>
+        <v>0.7340719194779999</v>
       </c>
       <c r="D5">
-        <v>0.9672123465108</v>
+        <v>0.9669763683684003</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.nittedal.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.nittedal.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8110.2595</v>
+        <v>8400.1015</v>
       </c>
       <c r="C2">
-        <v>6055.098</v>
+        <v>5876.733</v>
       </c>
       <c r="D2">
-        <v>472</v>
+        <v>583</v>
       </c>
       <c r="E2">
-        <v>13831.980150000001</v>
+        <v>13851.8033</v>
       </c>
       <c r="F2">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="G2">
-        <v>0.27292381690654427</v>
+        <v>0.012365545587782576</v>
       </c>
       <c r="H2">
-        <v>6055.098</v>
+        <v>5876.733</v>
       </c>
       <c r="I2">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J2">
-        <v>2524206</v>
+        <v>2538740</v>
       </c>
       <c r="K2">
         <v>47</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8041.7855</v>
+        <v>8360.1225</v>
       </c>
       <c r="C3">
-        <v>6192.165</v>
+        <v>6186.665999999999</v>
       </c>
       <c r="D3">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="E3">
-        <v>13768.9342</v>
+        <v>13851.136999999999</v>
       </c>
       <c r="F3">
-        <v>107.5</v>
+        <v>109.5</v>
       </c>
       <c r="G3">
-        <v>0.27292381690654427</v>
+        <v>0.012365545587782576</v>
       </c>
       <c r="H3">
-        <v>6192.165</v>
+        <v>6186.665999999999</v>
       </c>
       <c r="I3">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>2523985</v>
+        <v>2524658</v>
       </c>
       <c r="K3">
         <v>47</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8014.826500000001</v>
+        <v>8221.612</v>
       </c>
       <c r="C4">
-        <v>6162.313</v>
+        <v>6214.467000000001</v>
       </c>
       <c r="D4">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E4">
-        <v>13773.685700000002</v>
+        <v>13797.9189</v>
       </c>
       <c r="F4">
-        <v>119.5</v>
+        <v>104.5</v>
       </c>
       <c r="G4">
         <v>0.012365545587782576</v>
       </c>
       <c r="H4">
-        <v>6162.313</v>
+        <v>6214.467000000001</v>
       </c>
       <c r="I4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>2524325</v>
+        <v>2523971</v>
       </c>
       <c r="K4">
         <v>47</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>8041.7855</v>
+        <v>8360.1225</v>
       </c>
       <c r="C5">
-        <v>6162.313</v>
+        <v>6186.665999999999</v>
       </c>
       <c r="D5">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="E5">
-        <v>13773.685700000002</v>
+        <v>13851.136999999999</v>
       </c>
       <c r="F5">
-        <v>119.5</v>
+        <v>109.5</v>
       </c>
       <c r="G5">
-        <v>0.27292381690654427</v>
+        <v>0.012365545587782576</v>
       </c>
       <c r="H5">
-        <v>6162.313</v>
+        <v>6186.665999999999</v>
       </c>
       <c r="I5">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J5">
-        <v>2524206</v>
+        <v>2524658</v>
       </c>
       <c r="K5">
         <v>47</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>18199</v>
+        <v>18196</v>
       </c>
       <c r="F2">
         <v>78962</v>
       </c>
       <c r="G2">
-        <v>0.005292505786999999</v>
+        <v>0.005291633347999999</v>
       </c>
       <c r="H2">
-        <v>0.006971698398600001</v>
+        <v>0.0069705491544</v>
       </c>
     </row>
     <row r="3">
@@ -790,16 +790,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E8">
-        <v>28413</v>
+        <v>28411</v>
       </c>
       <c r="F8">
         <v>87507</v>
       </c>
       <c r="G8">
-        <v>0.008262869768999998</v>
+        <v>0.008262288142999999</v>
       </c>
       <c r="H8">
-        <v>0.0108844918182</v>
+        <v>0.0108837256554</v>
       </c>
     </row>
     <row r="9">
@@ -816,13 +816,13 @@
         <v>text/html</v>
       </c>
       <c r="E9">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G9">
-        <v>0.00005001983599999999</v>
+        <v>0.000050601461999999996</v>
       </c>
       <c r="H9">
-        <v>0.00006589000080000001</v>
+        <v>0.00006665616360000002</v>
       </c>
     </row>
     <row r="10">
@@ -839,16 +839,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E10">
-        <v>10383</v>
+        <v>25481</v>
       </c>
       <c r="F10">
         <v>25102</v>
       </c>
       <c r="G10">
-        <v>0.0030195113789999997</v>
+        <v>0.007410206052999999</v>
       </c>
       <c r="H10">
-        <v>0.0039775341762</v>
+        <v>0.0097612971534</v>
       </c>
     </row>
     <row r="11">
@@ -891,16 +891,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E12">
-        <v>8704</v>
+        <v>8706</v>
       </c>
       <c r="F12">
         <v>8537</v>
       </c>
       <c r="G12">
-        <v>0.002531236352</v>
+        <v>0.002531817978</v>
       </c>
       <c r="H12">
-        <v>0.0033343405056</v>
+        <v>0.0033351066684</v>
       </c>
     </row>
     <row r="13">
@@ -917,16 +917,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E13">
-        <v>10565</v>
+        <v>10563</v>
       </c>
       <c r="F13">
         <v>10372</v>
       </c>
       <c r="G13">
-        <v>0.0030724393449999996</v>
+        <v>0.0030718577189999996</v>
       </c>
       <c r="H13">
-        <v>0.004047254991000001</v>
+        <v>0.004046488828200001</v>
       </c>
     </row>
     <row r="14">
@@ -995,16 +995,16 @@
         <v>text/javascript</v>
       </c>
       <c r="E16">
-        <v>21344</v>
+        <v>21343</v>
       </c>
       <c r="F16">
         <v>52310</v>
       </c>
       <c r="G16">
-        <v>0.006207112672</v>
+        <v>0.006206821858999999</v>
       </c>
       <c r="H16">
-        <v>0.008176489401600002</v>
+        <v>0.0081761063202</v>
       </c>
     </row>
     <row r="17">
@@ -1021,16 +1021,16 @@
         <v>text/css</v>
       </c>
       <c r="E17">
-        <v>40804</v>
+        <v>40803</v>
       </c>
       <c r="F17">
         <v>79651</v>
       </c>
       <c r="G17">
-        <v>0.011866333651999999</v>
+        <v>0.011866042838999998</v>
       </c>
       <c r="H17">
-        <v>0.015631253445600003</v>
+        <v>0.015630870364200005</v>
       </c>
     </row>
     <row r="18">
@@ -1047,16 +1047,16 @@
         <v>text/html</v>
       </c>
       <c r="E18">
-        <v>38763</v>
+        <v>38765</v>
       </c>
       <c r="F18">
         <v>123370</v>
       </c>
       <c r="G18">
-        <v>0.011272784319</v>
+        <v>0.011273365944999999</v>
       </c>
       <c r="H18">
-        <v>0.0148493843082</v>
+        <v>0.014850150471</v>
       </c>
     </row>
     <row r="19">
@@ -1151,16 +1151,16 @@
         <v>image/png</v>
       </c>
       <c r="E22">
-        <v>9022</v>
+        <v>9020</v>
       </c>
       <c r="F22">
         <v>8853</v>
       </c>
       <c r="G22">
-        <v>0.0026237148859999996</v>
+        <v>0.0026231332599999995</v>
       </c>
       <c r="H22">
-        <v>0.0034561603908</v>
+        <v>0.0034553942279999996</v>
       </c>
     </row>
     <row r="23">
@@ -1298,25 +1298,25 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_412,c_limit/http://www.nittedal.kommune.no//globalassets/01-bilder/forsidebilder/nittedal_forside_4.jpg</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=337794377&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1225401855&amp;gjid=1972046672&amp;cid=444354478.1763143363&amp;tid=UA-57721246-1&amp;_gid=721258947.1763143363&amp;_r=1&amp;_slc=1&amp;z=712247792</v>
       </c>
       <c r="C28" t="str">
-        <v>Image</v>
+        <v>XHR</v>
       </c>
       <c r="D28" t="str">
-        <v>image/jpeg</v>
+        <v>text/plain</v>
       </c>
       <c r="E28">
-        <v>27417</v>
+        <v>470</v>
       </c>
       <c r="F28">
-        <v>26913</v>
+        <v>15</v>
       </c>
       <c r="G28">
-        <v>0.007973220021</v>
+        <v>0.00013668210999999997</v>
       </c>
       <c r="H28">
-        <v>0.010502942743799999</v>
+        <v>0.00018004825799999998</v>
       </c>
     </row>
     <row r="29">
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/aktuelt/budsjett-og-okonomi_boks.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_412,c_limit/http://www.nittedal.kommune.no//globalassets/01-bilder/forsidebilder/nittedal_forside_4.jpg</v>
       </c>
       <c r="C29" t="str">
         <v>Image</v>
@@ -1333,16 +1333,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E29">
-        <v>157156</v>
+        <v>27169</v>
       </c>
       <c r="F29">
-        <v>156467</v>
+        <v>26913</v>
       </c>
       <c r="G29">
-        <v>0.04570300782799999</v>
+        <v>0.007901098397</v>
       </c>
       <c r="H29">
-        <v>0.0602035404984</v>
+        <v>0.0104079385566</v>
       </c>
     </row>
     <row r="30">
@@ -1350,25 +1350,25 @@
         <v>1</v>
       </c>
       <c r="B30" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/01-bilder/varingskollenrotnes2.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/aktuelt/budsjett-og-okonomi_boks.jpg</v>
       </c>
       <c r="C30" t="str">
         <v>Image</v>
       </c>
       <c r="D30" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E30">
-        <v>257482</v>
+        <v>157195</v>
       </c>
       <c r="F30">
-        <v>256738</v>
+        <v>156467</v>
       </c>
       <c r="G30">
-        <v>0.07487911286599999</v>
+        <v>0.04571434953499999</v>
       </c>
       <c r="H30">
-        <v>0.0986365650348</v>
+        <v>0.06021848067300001</v>
       </c>
     </row>
     <row r="31">
@@ -1376,25 +1376,25 @@
         <v>1</v>
       </c>
       <c r="B31" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/teknisk-og-eiendom/omradeplan-nittedal-sentrum/bilder/masterplanskisse-2-10.10.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/01-bilder/varingskollenrotnes2.png</v>
       </c>
       <c r="C31" t="str">
         <v>Image</v>
       </c>
       <c r="D31" t="str">
-        <v>image/jpeg</v>
+        <v>image/png</v>
       </c>
       <c r="E31">
-        <v>125748</v>
+        <v>257351</v>
       </c>
       <c r="F31">
-        <v>125073</v>
+        <v>256738</v>
       </c>
       <c r="G31">
-        <v>0.036569153124</v>
+        <v>0.07484101636299999</v>
       </c>
       <c r="H31">
-        <v>0.0481717198872</v>
+        <v>0.09858638137140002</v>
       </c>
     </row>
     <row r="32">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="B32" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/aktuelt/556039143_1661027898618992_1881862328948673923_n.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/teknisk-og-eiendom/omradeplan-nittedal-sentrum/bilder/masterplanskisse-2-10.10.jpg</v>
       </c>
       <c r="C32" t="str">
         <v>Image</v>
@@ -1411,16 +1411,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E32">
-        <v>122557</v>
+        <v>125536</v>
       </c>
       <c r="F32">
-        <v>121876</v>
+        <v>125073</v>
       </c>
       <c r="G32">
-        <v>0.03564116884099999</v>
+        <v>0.036507500767999995</v>
       </c>
       <c r="H32">
-        <v>0.0469493071398</v>
+        <v>0.04809050663040001</v>
       </c>
     </row>
     <row r="33">
@@ -1428,25 +1428,25 @@
         <v>1</v>
       </c>
       <c r="B33" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_382,q_100,c_fill/https://www.nittedal.kommune.no/globalassets/02-dokumenter/aktuelt/556039143_1661027898618992_1881862328948673923_n.jpg</v>
       </c>
       <c r="C33" t="str">
-        <v>Fetch</v>
+        <v>Image</v>
       </c>
       <c r="D33" t="str">
-        <v>text/css</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E33">
-        <v>22174</v>
+        <v>122337</v>
       </c>
       <c r="F33">
-        <v>257200</v>
+        <v>121876</v>
       </c>
       <c r="G33">
-        <v>0.006448487461999999</v>
+        <v>0.035577189981</v>
       </c>
       <c r="H33">
-        <v>0.008494446963600001</v>
+        <v>0.046865029231800005</v>
       </c>
     </row>
     <row r="34">
@@ -1454,25 +1454,25 @@
         <v>1</v>
       </c>
       <c r="B34" t="str">
-        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/bot/kari.css?version2.1.8</v>
       </c>
       <c r="C34" t="str">
-        <v>Script</v>
+        <v>Fetch</v>
       </c>
       <c r="D34" t="str">
-        <v>application/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E34">
-        <v>325285</v>
+        <v>22174</v>
       </c>
       <c r="F34">
-        <v>1249958</v>
+        <v>257200</v>
       </c>
       <c r="G34">
-        <v>0.09459710670499999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H34">
-        <v>0.124610633199</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="35">
@@ -1480,25 +1480,25 @@
         <v>1</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=1995968185&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1775774193&amp;gjid=2055594698&amp;cid=1129149040.1763140955&amp;tid=UA-57721246-1&amp;_gid=1767019192.1763140955&amp;_r=1&amp;_slc=1&amp;z=617103531</v>
+        <v>https://007prokom.boost.ai/chatPanel/chatPanel.js</v>
       </c>
       <c r="C35" t="str">
-        <v>XHR</v>
+        <v>Script</v>
       </c>
       <c r="D35" t="str">
-        <v>text/plain</v>
+        <v>application/javascript</v>
       </c>
       <c r="E35">
-        <v>470</v>
+        <v>325285</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>1249958</v>
       </c>
       <c r="G35">
-        <v>0.00013668210999999997</v>
+        <v>0.09459710670499999</v>
       </c>
       <c r="H35">
-        <v>0.00018004825799999998</v>
+        <v>0.124610633199</v>
       </c>
     </row>
     <row r="36">
@@ -1515,16 +1515,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E36">
-        <v>137279</v>
+        <v>137281</v>
       </c>
       <c r="F36">
-        <v>387390</v>
+        <v>387400</v>
       </c>
       <c r="G36">
-        <v>0.039922517826999994</v>
+        <v>0.039923099452999995</v>
       </c>
       <c r="H36">
-        <v>0.0525890315106</v>
+        <v>0.05258979767340001</v>
       </c>
     </row>
     <row r="37">
@@ -1567,16 +1567,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E38">
-        <v>146857</v>
+        <v>146866</v>
       </c>
       <c r="F38">
-        <v>432403</v>
+        <v>432423</v>
       </c>
       <c r="G38">
-        <v>0.04270792474099999</v>
+        <v>0.04271054205799999</v>
       </c>
       <c r="H38">
-        <v>0.056258185159799995</v>
+        <v>0.0562616328924</v>
       </c>
     </row>
     <row r="39">
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="B41" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763140954786&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=1129149040.1763140955&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~105322304~115583767~115616986~115938466~115938469~116194002~116217636~116217638~116474636&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140954&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1006</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763143362572&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=444354478.1763143363&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~105391252~115583767~115616986~115938466~115938469~116217636~116217638~116251938~116251940&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763143362&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1156</v>
       </c>
       <c r="C41" t="str">
         <v>Fetch</v>
@@ -1694,16 +1694,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E43">
-        <v>1208</v>
+        <v>1408</v>
       </c>
       <c r="F43">
         <v>3018</v>
       </c>
       <c r="G43">
-        <v>0.0003513021039999999</v>
+        <v>0.0004094647039999999</v>
       </c>
       <c r="H43">
-        <v>0.00046276233119999996</v>
+        <v>0.0005393786112</v>
       </c>
     </row>
     <row r="44">
@@ -1821,16 +1821,16 @@
         <v>text/html</v>
       </c>
       <c r="E48">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="F48">
         <v>1597</v>
       </c>
       <c r="G48">
-        <v>0.0005554528299999999</v>
+        <v>0.000556034456</v>
       </c>
       <c r="H48">
-        <v>0.000731685474</v>
+        <v>0.0007324516368000002</v>
       </c>
     </row>
     <row r="49">
@@ -1847,16 +1847,16 @@
         <v>text/html</v>
       </c>
       <c r="E49">
-        <v>18196</v>
+        <v>18198</v>
       </c>
       <c r="F49">
         <v>78962</v>
       </c>
       <c r="G49">
-        <v>0.005291633347999999</v>
+        <v>0.005292214973999999</v>
       </c>
       <c r="H49">
-        <v>0.0069705491544</v>
+        <v>0.006971315317200001</v>
       </c>
     </row>
     <row r="50">
@@ -1899,16 +1899,16 @@
         <v>text/css</v>
       </c>
       <c r="E51">
-        <v>122156</v>
+        <v>122154</v>
       </c>
       <c r="F51">
         <v>327837</v>
       </c>
       <c r="G51">
-        <v>0.03552455282799999</v>
+        <v>0.035523971201999995</v>
       </c>
       <c r="H51">
-        <v>0.0467956914984</v>
+        <v>0.0467949253356</v>
       </c>
     </row>
     <row r="52">
@@ -2003,16 +2003,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E55">
-        <v>28413</v>
+        <v>28412</v>
       </c>
       <c r="F55">
         <v>87507</v>
       </c>
       <c r="G55">
-        <v>0.008262869768999998</v>
+        <v>0.008262578956</v>
       </c>
       <c r="H55">
-        <v>0.0108844918182</v>
+        <v>0.010884108736800001</v>
       </c>
     </row>
     <row r="56">
@@ -2029,13 +2029,13 @@
         <v>text/html</v>
       </c>
       <c r="E56">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G56">
-        <v>0.00005001983599999999</v>
+        <v>0.000050601461999999996</v>
       </c>
       <c r="H56">
-        <v>0.00006589000080000001</v>
+        <v>0.00006665616360000002</v>
       </c>
     </row>
     <row r="57">
@@ -2104,16 +2104,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E59">
-        <v>8729</v>
+        <v>8706</v>
       </c>
       <c r="F59">
         <v>8537</v>
       </c>
       <c r="G59">
-        <v>0.0025385066769999997</v>
+        <v>0.002531817978</v>
       </c>
       <c r="H59">
-        <v>0.0033439175406000006</v>
+        <v>0.0033351066684</v>
       </c>
     </row>
     <row r="60">
@@ -2130,16 +2130,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E60">
-        <v>10542</v>
+        <v>10565</v>
       </c>
       <c r="F60">
         <v>10372</v>
       </c>
       <c r="G60">
-        <v>0.0030657506459999995</v>
+        <v>0.0030724393449999996</v>
       </c>
       <c r="H60">
-        <v>0.0040384441188</v>
+        <v>0.004047254991000001</v>
       </c>
     </row>
     <row r="61">
@@ -2199,25 +2199,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
+        <v>https://www.google-analytics.com/analytics.js</v>
       </c>
       <c r="C63" t="str">
-        <v>Image</v>
+        <v>Script</v>
       </c>
       <c r="D63" t="str">
-        <v>image/png</v>
+        <v>text/javascript</v>
       </c>
       <c r="E63">
-        <v>9022</v>
+        <v>21344</v>
       </c>
       <c r="F63">
-        <v>8853</v>
+        <v>52310</v>
       </c>
       <c r="G63">
-        <v>0.0026237148859999996</v>
+        <v>0.006207112672</v>
       </c>
       <c r="H63">
-        <v>0.0034561603908</v>
+        <v>0.008176489401600002</v>
       </c>
     </row>
     <row r="64">
@@ -2225,25 +2225,25 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.google-analytics.com/analytics.js</v>
+        <v>https://cdn1.readspeaker.com/script/5653/webReader/r/r2852/ReadSpeaker.Styles-Button.css?v=3.8.8.2852</v>
       </c>
       <c r="C64" t="str">
-        <v>Script</v>
+        <v>Stylesheet</v>
       </c>
       <c r="D64" t="str">
-        <v>text/javascript</v>
+        <v>text/css</v>
       </c>
       <c r="E64">
-        <v>21344</v>
+        <v>40803</v>
       </c>
       <c r="F64">
-        <v>52310</v>
+        <v>79651</v>
       </c>
       <c r="G64">
-        <v>0.006207112672</v>
+        <v>0.011866042838999998</v>
       </c>
       <c r="H64">
-        <v>0.008176489401600002</v>
+        <v>0.015630870364200005</v>
       </c>
     </row>
     <row r="65">
@@ -2251,25 +2251,25 @@
         <v>2</v>
       </c>
       <c r="B65" t="str">
-        <v>https://cdn1.readspeaker.com/script/5653/webReader/r/r2852/ReadSpeaker.Styles-Button.css?v=3.8.8.2852</v>
+        <v>https://share.transistor.fm/e/vi-er-nittedal-c5a88790-c667-457d-9237-b8f0a3cc50a3/playlist?color=444444&amp;background=FFFFFF</v>
       </c>
       <c r="C65" t="str">
-        <v>Stylesheet</v>
+        <v>Document</v>
       </c>
       <c r="D65" t="str">
-        <v>text/css</v>
+        <v>text/html</v>
       </c>
       <c r="E65">
-        <v>40804</v>
+        <v>38769</v>
       </c>
       <c r="F65">
-        <v>79651</v>
+        <v>123370</v>
       </c>
       <c r="G65">
-        <v>0.011866333651999999</v>
+        <v>0.011274529197</v>
       </c>
       <c r="H65">
-        <v>0.015631253445600003</v>
+        <v>0.014851682796600003</v>
       </c>
     </row>
     <row r="66">
@@ -2277,25 +2277,25 @@
         <v>2</v>
       </c>
       <c r="B66" t="str">
-        <v>https://share.transistor.fm/e/vi-er-nittedal-c5a88790-c667-457d-9237-b8f0a3cc50a3/playlist?color=444444&amp;background=FFFFFF</v>
+        <v>https://prokomresources.prokomcdn.no/client-grunt/04-common/font/budicon.woff?42886572</v>
       </c>
       <c r="C66" t="str">
-        <v>Document</v>
+        <v>Font</v>
       </c>
       <c r="D66" t="str">
-        <v>text/html</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E66">
-        <v>38760</v>
+        <v>100267</v>
       </c>
       <c r="F66">
-        <v>123370</v>
+        <v>99880</v>
       </c>
       <c r="G66">
-        <v>0.011271911879999999</v>
+        <v>0.029158947070999995</v>
       </c>
       <c r="H66">
-        <v>0.014848235064000001</v>
+        <v>0.03841042273379999</v>
       </c>
     </row>
     <row r="67">
@@ -2303,25 +2303,25 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://prokomresources.prokomcdn.no/client-grunt/04-common/font/budicon.woff?42886572</v>
+        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=1921&amp;SearchText=&amp;DateFrom=01.11.2025&amp;DateTo=30.11.2025&amp;Municipalities=0&amp;Kunde=nittedalkommune&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=&amp;Distributor=</v>
       </c>
       <c r="C67" t="str">
-        <v>Font</v>
+        <v>XHR</v>
       </c>
       <c r="D67" t="str">
-        <v>application/font-woff</v>
+        <v>application/json</v>
       </c>
       <c r="E67">
-        <v>100267</v>
+        <v>18676</v>
       </c>
       <c r="F67">
-        <v>99880</v>
+        <v>268187</v>
       </c>
       <c r="G67">
-        <v>0.029158947070999995</v>
+        <v>0.005431223587999999</v>
       </c>
       <c r="H67">
-        <v>0.03841042273379999</v>
+        <v>0.0071544282263999994</v>
       </c>
     </row>
     <row r="68">
@@ -2329,25 +2329,25 @@
         <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>https://sspkalender.prokom.no/api/tidspunkt/?Categories=1921&amp;SearchText=&amp;DateFrom=01.11.2025&amp;DateTo=30.11.2025&amp;Municipalities=0&amp;Kunde=nittedalkommune&amp;Id=&amp;ItemDate=&amp;WeekDays=&amp;List=&amp;Count=&amp;Distributor=</v>
+        <v>https://fonts.gstatic.com/s/opensans/v44/memvYaGs126MiZpBA-UvWbX2vVnXBbObj2OVTUGmu0SC55K5gw.woff2</v>
       </c>
       <c r="C68" t="str">
-        <v>XHR</v>
+        <v>Font</v>
       </c>
       <c r="D68" t="str">
-        <v>application/json</v>
+        <v>font/woff2</v>
       </c>
       <c r="E68">
-        <v>18676</v>
+        <v>22709</v>
       </c>
       <c r="F68">
-        <v>268187</v>
+        <v>22680</v>
       </c>
       <c r="G68">
-        <v>0.005431223587999999</v>
+        <v>0.006604072416999999</v>
       </c>
       <c r="H68">
-        <v>0.0071544282263999994</v>
+        <v>0.0086993955126</v>
       </c>
     </row>
     <row r="69">
@@ -2355,25 +2355,25 @@
         <v>2</v>
       </c>
       <c r="B69" t="str">
-        <v>https://fonts.gstatic.com/s/opensans/v44/memvYaGs126MiZpBA-UvWbX2vVnXBbObj2OVTUGmu0SC55K5gw.woff2</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
       </c>
       <c r="C69" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D69" t="str">
-        <v>font/woff2</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E69">
-        <v>22709</v>
+        <v>588</v>
       </c>
       <c r="F69">
-        <v>22680</v>
+        <v>450</v>
       </c>
       <c r="G69">
-        <v>0.006604072416999999</v>
+        <v>0.00017099804399999996</v>
       </c>
       <c r="H69">
-        <v>0.0086993955126</v>
+        <v>0.0002252518632</v>
       </c>
     </row>
     <row r="70">
@@ -2381,25 +2381,25 @@
         <v>2</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
       </c>
       <c r="C70" t="str">
         <v>Image</v>
       </c>
       <c r="D70" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E70">
-        <v>590</v>
+        <v>2641</v>
       </c>
       <c r="F70">
-        <v>450</v>
+        <v>2505</v>
       </c>
       <c r="G70">
-        <v>0.00017157967</v>
+        <v>0.000768037133</v>
       </c>
       <c r="H70">
-        <v>0.00022601802599999998</v>
+        <v>0.0010117179774000004</v>
       </c>
     </row>
     <row r="71">
@@ -2407,25 +2407,25 @@
         <v>2</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
+        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
       </c>
       <c r="C71" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D71" t="str">
-        <v>image/png</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E71">
-        <v>2639</v>
+        <v>12996</v>
       </c>
       <c r="F71">
-        <v>2505</v>
+        <v>12996</v>
       </c>
       <c r="G71">
-        <v>0.0007674555069999999</v>
+        <v>0.0037794057479999996</v>
       </c>
       <c r="H71">
-        <v>0.0010109518146000003</v>
+        <v>0.0049785258744000005</v>
       </c>
     </row>
     <row r="72">
@@ -2433,25 +2433,25 @@
         <v>2</v>
       </c>
       <c r="B72" t="str">
-        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
+        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
       </c>
       <c r="C72" t="str">
         <v>Font</v>
       </c>
       <c r="D72" t="str">
-        <v>application/x-font-ttf</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E72">
-        <v>12996</v>
+        <v>25716</v>
       </c>
       <c r="F72">
-        <v>12996</v>
+        <v>25716</v>
       </c>
       <c r="G72">
-        <v>0.0037794057479999996</v>
+        <v>0.007478547107999999</v>
       </c>
       <c r="H72">
-        <v>0.0049785258744000005</v>
+        <v>0.009851321282399999</v>
       </c>
     </row>
     <row r="73">
@@ -2459,25 +2459,25 @@
         <v>2</v>
       </c>
       <c r="B73" t="str">
-        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
+        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
       </c>
       <c r="C73" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D73" t="str">
-        <v>application/font-woff</v>
+        <v>image/png</v>
       </c>
       <c r="E73">
-        <v>25716</v>
+        <v>9020</v>
       </c>
       <c r="F73">
-        <v>25716</v>
+        <v>8853</v>
       </c>
       <c r="G73">
-        <v>0.007478547107999999</v>
+        <v>0.0026231332599999995</v>
       </c>
       <c r="H73">
-        <v>0.009851321282399999</v>
+        <v>0.0034553942279999996</v>
       </c>
     </row>
     <row r="74">
@@ -2520,16 +2520,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E75">
-        <v>27169</v>
+        <v>27417</v>
       </c>
       <c r="F75">
         <v>26913</v>
       </c>
       <c r="G75">
-        <v>0.007901098397</v>
+        <v>0.007973220021</v>
       </c>
       <c r="H75">
-        <v>0.0104079385566</v>
+        <v>0.010502942743799999</v>
       </c>
     </row>
     <row r="76">
@@ -2546,16 +2546,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E76">
-        <v>157195</v>
+        <v>157157</v>
       </c>
       <c r="F76">
         <v>156467</v>
       </c>
       <c r="G76">
-        <v>0.04571434953499999</v>
+        <v>0.04570329864099999</v>
       </c>
       <c r="H76">
-        <v>0.06021848067300001</v>
+        <v>0.06020392357980001</v>
       </c>
     </row>
     <row r="77">
@@ -2572,16 +2572,16 @@
         <v>image/png</v>
       </c>
       <c r="E77">
-        <v>257361</v>
+        <v>257448</v>
       </c>
       <c r="F77">
         <v>256738</v>
       </c>
       <c r="G77">
-        <v>0.074843924493</v>
+        <v>0.07486922522399998</v>
       </c>
       <c r="H77">
-        <v>0.09859021218540001</v>
+        <v>0.09862354026720002</v>
       </c>
     </row>
     <row r="78">
@@ -2598,16 +2598,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>125536</v>
+        <v>125747</v>
       </c>
       <c r="F78">
         <v>125073</v>
       </c>
       <c r="G78">
-        <v>0.036507500767999995</v>
+        <v>0.036568862311</v>
       </c>
       <c r="H78">
-        <v>0.04809050663040001</v>
+        <v>0.048171336805800005</v>
       </c>
     </row>
     <row r="79">
@@ -2624,16 +2624,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>122328</v>
+        <v>122515</v>
       </c>
       <c r="F79">
         <v>121876</v>
       </c>
       <c r="G79">
-        <v>0.035574572664</v>
+        <v>0.03562895469499999</v>
       </c>
       <c r="H79">
-        <v>0.0468615814992</v>
+        <v>0.046933217721</v>
       </c>
     </row>
     <row r="80">
@@ -2676,16 +2676,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E81">
-        <v>325285</v>
+        <v>325294</v>
       </c>
       <c r="F81">
         <v>1249958</v>
       </c>
       <c r="G81">
-        <v>0.09459710670499999</v>
+        <v>0.09459972402199998</v>
       </c>
       <c r="H81">
-        <v>0.124610633199</v>
+        <v>0.12461408093160001</v>
       </c>
     </row>
     <row r="82">
@@ -2693,7 +2693,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=819039624&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=836338402&amp;gjid=1891891427&amp;cid=216167352.1763140968&amp;tid=UA-57721246-1&amp;_gid=2021050495.1763140968&amp;_r=1&amp;_slc=1&amp;z=2069515802</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=879604123&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=1951525738&amp;gjid=1893787745&amp;cid=2079231.1763143376&amp;tid=UA-57721246-1&amp;_gid=2044623995.1763143376&amp;_r=1&amp;_slc=1&amp;z=1527534192</v>
       </c>
       <c r="C82" t="str">
         <v>XHR</v>
@@ -2780,16 +2780,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E85">
-        <v>29696</v>
+        <v>29691</v>
       </c>
       <c r="F85">
         <v>87794</v>
       </c>
       <c r="G85">
-        <v>0.008635982847999999</v>
+        <v>0.008634528782999999</v>
       </c>
       <c r="H85">
-        <v>0.011375985254400003</v>
+        <v>0.0113740698474</v>
       </c>
     </row>
     <row r="86">
@@ -2806,16 +2806,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E86">
-        <v>137505</v>
+        <v>137274</v>
       </c>
       <c r="F86">
-        <v>388305</v>
+        <v>387373</v>
       </c>
       <c r="G86">
-        <v>0.039988241565</v>
+        <v>0.039921063762</v>
       </c>
       <c r="H86">
-        <v>0.052675607907</v>
+        <v>0.05258711610360001</v>
       </c>
     </row>
     <row r="87">
@@ -2832,16 +2832,16 @@
         <v>image/webp</v>
       </c>
       <c r="E87">
-        <v>8305</v>
+        <v>8304</v>
       </c>
       <c r="F87">
         <v>8004</v>
       </c>
       <c r="G87">
-        <v>0.0024152019649999997</v>
+        <v>0.002414911152</v>
       </c>
       <c r="H87">
-        <v>0.003181491027</v>
+        <v>0.003181107945600001</v>
       </c>
     </row>
     <row r="88">
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B88" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bd0h2v9110735214za200&amp;_p=1763140967981&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=216167352.1763140968&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528500~104684208~104684211~115583767~115616986~115938466~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140968&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1007</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1h1v9110735214za200&amp;_p=1763143375925&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=2079231.1763143376&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528501~104684208~104684211~115583767~115938465~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763143376&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=1093</v>
       </c>
       <c r="C88" t="str">
         <v>Fetch</v>
@@ -2907,16 +2907,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E90">
-        <v>1208</v>
+        <v>1408</v>
       </c>
       <c r="F90">
         <v>3018</v>
       </c>
       <c r="G90">
-        <v>0.0003513021039999999</v>
+        <v>0.0004094647039999999</v>
       </c>
       <c r="H90">
-        <v>0.00046276233119999996</v>
+        <v>0.0005393786112</v>
       </c>
     </row>
     <row r="91">
@@ -2982,16 +2982,16 @@
         <v>text/json</v>
       </c>
       <c r="E93">
-        <v>7414</v>
+        <v>7415</v>
       </c>
       <c r="F93">
         <v>28951</v>
       </c>
       <c r="G93">
-        <v>0.0021560875819999995</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H93">
-        <v>0.0028401654996000002</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="94">
@@ -3034,16 +3034,16 @@
         <v>text/html</v>
       </c>
       <c r="E95">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="F95">
         <v>1597</v>
       </c>
       <c r="G95">
-        <v>0.000556034456</v>
+        <v>0.0005554528299999999</v>
       </c>
       <c r="H95">
-        <v>0.0007324516368000002</v>
+        <v>0.000731685474</v>
       </c>
     </row>
     <row r="96">
@@ -3138,16 +3138,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E99">
-        <v>485057</v>
+        <v>485059</v>
       </c>
       <c r="F99">
         <v>1398529</v>
       </c>
       <c r="G99">
-        <v>0.14106088134099998</v>
+        <v>0.14106146296699998</v>
       </c>
       <c r="H99">
-        <v>0.1858163146398</v>
+        <v>0.18581708080259998</v>
       </c>
     </row>
     <row r="100">
@@ -3216,16 +3216,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E102">
-        <v>28414</v>
+        <v>28412</v>
       </c>
       <c r="F102">
         <v>87507</v>
       </c>
       <c r="G102">
-        <v>0.008263160581999999</v>
+        <v>0.008262578956</v>
       </c>
       <c r="H102">
-        <v>0.010884874899600001</v>
+        <v>0.010884108736800001</v>
       </c>
     </row>
     <row r="103">
@@ -3242,13 +3242,13 @@
         <v>text/html</v>
       </c>
       <c r="E103">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="G103">
-        <v>0.000050601461999999996</v>
+        <v>0.00005729016099999999</v>
       </c>
       <c r="H103">
-        <v>0.00006665616360000002</v>
+        <v>0.00007546703580000001</v>
       </c>
     </row>
     <row r="104">
@@ -3473,16 +3473,16 @@
         <v>text/html</v>
       </c>
       <c r="E112">
-        <v>38763</v>
+        <v>38769</v>
       </c>
       <c r="F112">
         <v>123370</v>
       </c>
       <c r="G112">
-        <v>0.011272784319</v>
+        <v>0.011274529197</v>
       </c>
       <c r="H112">
-        <v>0.0148493843082</v>
+        <v>0.014851682796600003</v>
       </c>
     </row>
     <row r="113">
@@ -3568,25 +3568,25 @@
         <v>3</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
       </c>
       <c r="C116" t="str">
         <v>Image</v>
       </c>
       <c r="D116" t="str">
-        <v>image/png</v>
+        <v>image/svg+xml</v>
       </c>
       <c r="E116">
-        <v>9022</v>
+        <v>590</v>
       </c>
       <c r="F116">
-        <v>8853</v>
+        <v>450</v>
       </c>
       <c r="G116">
-        <v>0.0026237148859999996</v>
+        <v>0.00017157967</v>
       </c>
       <c r="H116">
-        <v>0.0034561603908</v>
+        <v>0.00022601802599999998</v>
       </c>
     </row>
     <row r="117">
@@ -3594,25 +3594,25 @@
         <v>3</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/facebook.svg</v>
+        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
       </c>
       <c r="C117" t="str">
         <v>Image</v>
       </c>
       <c r="D117" t="str">
-        <v>image/svg+xml</v>
+        <v>image/png</v>
       </c>
       <c r="E117">
-        <v>588</v>
+        <v>2641</v>
       </c>
       <c r="F117">
-        <v>450</v>
+        <v>2505</v>
       </c>
       <c r="G117">
-        <v>0.00017099804399999996</v>
+        <v>0.000768037133</v>
       </c>
       <c r="H117">
-        <v>0.0002252518632</v>
+        <v>0.0010117179774000004</v>
       </c>
     </row>
     <row r="118">
@@ -3620,25 +3620,25 @@
         <v>3</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.nittedal.kommune.no/external/ssp/inter-v1/prod/img/twitter.png</v>
+        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
       </c>
       <c r="C118" t="str">
-        <v>Image</v>
+        <v>Font</v>
       </c>
       <c r="D118" t="str">
-        <v>image/png</v>
+        <v>application/x-font-ttf</v>
       </c>
       <c r="E118">
-        <v>2641</v>
+        <v>12996</v>
       </c>
       <c r="F118">
-        <v>2505</v>
+        <v>12996</v>
       </c>
       <c r="G118">
-        <v>0.000768037133</v>
+        <v>0.0037794057479999996</v>
       </c>
       <c r="H118">
-        <v>0.0010117179774000004</v>
+        <v>0.0049785258744000005</v>
       </c>
     </row>
     <row r="119">
@@ -3646,25 +3646,25 @@
         <v>3</v>
       </c>
       <c r="B119" t="str">
-        <v>data:application/x-font-ttf;charset=utf-8;base64,AAEAAAALAIAAAwAwT1MvMg8SDFEAAAC8AAAAYGNtYXDfzt66AA…</v>
+        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
       </c>
       <c r="C119" t="str">
         <v>Font</v>
       </c>
       <c r="D119" t="str">
-        <v>application/x-font-ttf</v>
+        <v>application/font-woff</v>
       </c>
       <c r="E119">
-        <v>12996</v>
+        <v>25716</v>
       </c>
       <c r="F119">
-        <v>12996</v>
+        <v>25716</v>
       </c>
       <c r="G119">
-        <v>0.0037794057479999996</v>
+        <v>0.007478547107999999</v>
       </c>
       <c r="H119">
-        <v>0.0049785258744000005</v>
+        <v>0.009851321282399999</v>
       </c>
     </row>
     <row r="120">
@@ -3672,25 +3672,25 @@
         <v>3</v>
       </c>
       <c r="B120" t="str">
-        <v>data:application/font-woff;charset=utf-8;base64,d09GRgABAAAAAGR0ABMAAAAAtxAAAQAAAAAAAAAAAAAAAAAAAAA…</v>
+        <v>https://www.nittedal.kommune.no/globalassets/95-system/systembilder/nittedallogo.png</v>
       </c>
       <c r="C120" t="str">
-        <v>Font</v>
+        <v>Image</v>
       </c>
       <c r="D120" t="str">
-        <v>application/font-woff</v>
+        <v>image/png</v>
       </c>
       <c r="E120">
-        <v>25716</v>
+        <v>9022</v>
       </c>
       <c r="F120">
-        <v>25716</v>
+        <v>8853</v>
       </c>
       <c r="G120">
-        <v>0.007478547107999999</v>
+        <v>0.0026237148859999996</v>
       </c>
       <c r="H120">
-        <v>0.009851321282399999</v>
+        <v>0.0034561603908</v>
       </c>
     </row>
     <row r="121">
@@ -3733,16 +3733,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E122">
-        <v>27378</v>
+        <v>27169</v>
       </c>
       <c r="F122">
         <v>26913</v>
       </c>
       <c r="G122">
-        <v>0.007961878313999998</v>
+        <v>0.007901098397</v>
       </c>
       <c r="H122">
-        <v>0.010488002569200001</v>
+        <v>0.0104079385566</v>
       </c>
     </row>
     <row r="123">
@@ -3759,16 +3759,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E123">
-        <v>157119</v>
+        <v>156963</v>
       </c>
       <c r="F123">
         <v>156467</v>
       </c>
       <c r="G123">
-        <v>0.045692247746999995</v>
+        <v>0.04564688091899999</v>
       </c>
       <c r="H123">
-        <v>0.0601893664866</v>
+        <v>0.06012960578820002</v>
       </c>
     </row>
     <row r="124">
@@ -3785,16 +3785,16 @@
         <v>image/png</v>
       </c>
       <c r="E124">
-        <v>257444</v>
+        <v>257361</v>
       </c>
       <c r="F124">
         <v>256738</v>
       </c>
       <c r="G124">
-        <v>0.07486806197199998</v>
+        <v>0.074843924493</v>
       </c>
       <c r="H124">
-        <v>0.0986220079416</v>
+        <v>0.09859021218540001</v>
       </c>
     </row>
     <row r="125">
@@ -3811,16 +3811,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E125">
-        <v>125709</v>
+        <v>125768</v>
       </c>
       <c r="F125">
         <v>125073</v>
       </c>
       <c r="G125">
-        <v>0.03655781141699999</v>
+        <v>0.036574969384</v>
       </c>
       <c r="H125">
-        <v>0.0481567797126</v>
+        <v>0.0481793815152</v>
       </c>
     </row>
     <row r="126">
@@ -3837,16 +3837,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E126">
-        <v>122510</v>
+        <v>122337</v>
       </c>
       <c r="F126">
         <v>121876</v>
       </c>
       <c r="G126">
-        <v>0.035627500629999996</v>
+        <v>0.035577189981</v>
       </c>
       <c r="H126">
-        <v>0.046931302314</v>
+        <v>0.046865029231800005</v>
       </c>
     </row>
     <row r="127">
@@ -3906,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=828336498&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=127340212&amp;gjid=1281385461&amp;cid=1827825342.1763140981&amp;tid=UA-57721246-1&amp;_gid=1687524289.1763140981&amp;_r=1&amp;_slc=1&amp;z=1675105889</v>
+        <v>https://www.google-analytics.com/j/collect?v=1&amp;_v=j102&amp;a=296348831&amp;t=pageview&amp;_s=1&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;ul=en-gb&amp;dt=Nittedal%20-%20Startside&amp;sr=412x823&amp;vp=412x823&amp;_u=IEBAAEABAAAAACAAI~&amp;jid=426955247&amp;gjid=1558647208&amp;cid=758719557.1763143389&amp;tid=UA-57721246-1&amp;_gid=1935463914.1763143389&amp;_r=1&amp;_slc=1&amp;z=1918143995</v>
       </c>
       <c r="C129" t="str">
         <v>XHR</v>
@@ -3967,16 +3967,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E131">
-        <v>146861</v>
+        <v>146860</v>
       </c>
       <c r="F131">
         <v>432393</v>
       </c>
       <c r="G131">
-        <v>0.042709087992999994</v>
+        <v>0.042708797179999994</v>
       </c>
       <c r="H131">
-        <v>0.056259717485400006</v>
+        <v>0.05625933440400001</v>
       </c>
     </row>
     <row r="132">
@@ -3993,16 +3993,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E132">
-        <v>29690</v>
+        <v>29692</v>
       </c>
       <c r="F132">
         <v>87794</v>
       </c>
       <c r="G132">
-        <v>0.008634237969999998</v>
+        <v>0.008634819595999998</v>
       </c>
       <c r="H132">
-        <v>0.011373686766</v>
+        <v>0.0113744529288</v>
       </c>
     </row>
     <row r="133">
@@ -4019,16 +4019,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E133">
-        <v>137275</v>
+        <v>137274</v>
       </c>
       <c r="F133">
-        <v>387373</v>
+        <v>387383</v>
       </c>
       <c r="G133">
-        <v>0.039921354575</v>
+        <v>0.039921063762</v>
       </c>
       <c r="H133">
-        <v>0.052587499185000004</v>
+        <v>0.05258711610360001</v>
       </c>
     </row>
     <row r="134">
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="B135" t="str">
-        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763140981057&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=1827825342.1763140981&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527907~104528501~104684208~104684211~115583767~115616985~115938466~115938469~116217636~116217638&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763140981&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=988</v>
+        <v>https://region1.google-analytics.com/g/collect?v=2&amp;tid=G-MVSJ5DMLBR&amp;gtm=45je5bc1v9110735214za200&amp;_p=1763143389376&amp;gcd=13l3l3l2l2l1&amp;npa=0&amp;dma_cps=syphamo&amp;dma=1&amp;ul=en-gb&amp;sr=412x823&amp;cid=758719557.1763143389&amp;ir=1&amp;uaa=&amp;uab=64&amp;uafvl=Chromium%3B142.0.7444.162%7CGoogle%2520Chrome%3B142.0.7444.162%7CNot_A%2520Brand%3B99.0.0.0&amp;uamb=1&amp;uam=moto%20g%20power%20(2022)&amp;uap=Android&amp;uapv=11.0&amp;uaw=0&amp;are=1&amp;frm=0&amp;pscdl=noapi&amp;_eu=EBAI&amp;_s=1&amp;tag_exp=103116026~103200004~104527906~104528500~104684208~104684211~105322302~115583767~115938465~115938469~116194001~116217636~116217638~116474636&amp;dl=https%3A%2F%2Fwww.nittedal.kommune.no%2F&amp;dt=Nittedal%20-%20Startside&amp;sid=1763143389&amp;sct=1&amp;seg=0&amp;_tu=wAQ&amp;en=page_view&amp;_fv=1&amp;_ss=1&amp;_ee=1&amp;tfd=949</v>
       </c>
       <c r="C135" t="str">
         <v>Fetch</v>
@@ -4120,16 +4120,16 @@
         <v>application/x-javascript</v>
       </c>
       <c r="E137">
-        <v>1208</v>
+        <v>1408</v>
       </c>
       <c r="F137">
         <v>3018</v>
       </c>
       <c r="G137">
-        <v>0.0003513021039999999</v>
+        <v>0.0004094647039999999</v>
       </c>
       <c r="H137">
-        <v>0.00046276233119999996</v>
+        <v>0.0005393786112</v>
       </c>
     </row>
     <row r="138">
@@ -4247,16 +4247,16 @@
         <v>text/html</v>
       </c>
       <c r="E142">
-        <v>1910</v>
+        <v>1887</v>
       </c>
       <c r="F142">
         <v>1597</v>
       </c>
       <c r="G142">
-        <v>0.0005554528299999999</v>
+        <v>0.000548764131</v>
       </c>
       <c r="H142">
-        <v>0.000731685474</v>
+        <v>0.0007228746018000001</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4295,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>170879</v>
+        <v>170895</v>
       </c>
       <c r="D2">
         <v>606996</v>
@@ -4309,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>526883</v>
+        <v>526879</v>
       </c>
       <c r="D3">
         <v>1436286</v>
@@ -4323,10 +4323,10 @@
         <v>39</v>
       </c>
       <c r="C4">
-        <v>3710045</v>
+        <v>3710425</v>
       </c>
       <c r="D4">
-        <v>11669465</v>
+        <v>11668573</v>
       </c>
     </row>
     <row r="5">
@@ -4337,7 +4337,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>42</v>
       </c>
       <c r="C6">
-        <v>2255793</v>
+        <v>2270249</v>
       </c>
       <c r="D6">
         <v>2330766</v>
@@ -4379,7 +4379,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>79682</v>
+        <v>79683</v>
       </c>
       <c r="D8">
         <v>891459</v>
@@ -4421,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>5732</v>
+        <v>5709</v>
       </c>
       <c r="D11">
         <v>4791</v>
@@ -4460,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2524206</v>
+        <v>2538740</v>
       </c>
       <c r="C2">
-        <v>0.7340719194779999</v>
+        <v>0.7382985956199999</v>
       </c>
       <c r="D2">
-        <v>0.9669763683684003</v>
+        <v>0.9725440734359999</v>
       </c>
     </row>
     <row r="3">
@@ -4474,13 +4474,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2523985</v>
+        <v>2524658</v>
       </c>
       <c r="C3">
-        <v>0.734007649805</v>
+        <v>0.7342033669539999</v>
       </c>
       <c r="D3">
-        <v>0.9668917073790001</v>
+        <v>0.9671495211611999</v>
       </c>
     </row>
     <row r="4">
@@ -4488,13 +4488,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2524325</v>
+        <v>2523971</v>
       </c>
       <c r="C4">
-        <v>0.734106526225</v>
+        <v>0.7340035784229999</v>
       </c>
       <c r="D4">
-        <v>0.967021955055</v>
+        <v>0.9668863442393999</v>
       </c>
     </row>
     <row r="5">
@@ -4502,13 +4502,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>2524206</v>
+        <v>2524658</v>
       </c>
       <c r="C5">
-        <v>0.7340719194779999</v>
+        <v>0.7342033669539999</v>
       </c>
       <c r="D5">
-        <v>0.9669763683684003</v>
+        <v>0.9671495211611999</v>
       </c>
     </row>
   </sheetData>
